--- a/Scripts/shot_peddb_only_good_shots.xlsx
+++ b/Scripts/shot_peddb_only_good_shots.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\MAST_Edge_RT_Research\Scripts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FA76C-F6C0-4257-8E34-C907AE744E6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>shot</t>
   </si>
@@ -61,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +119,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -179,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,27 +197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,24 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,19 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="7" max="7" width="11.265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,634 +445,214 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27036</v>
+        <v>30356</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>3.3744860679422079E+19</v>
+        <v>1.998592841120062e+19</v>
       </c>
       <c r="E2">
-        <v>1.6721895103240599E+18</v>
+        <v>9.2717774865118e+17</v>
       </c>
       <c r="F2">
-        <v>2.6644574779722232E+19</v>
+        <v>1.143490750244865e+19</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>45.098430084990753</v>
+        <v>158.2478928641576</v>
       </c>
       <c r="I2">
-        <v>7.4237244286815312</v>
+        <v>18.60943978376696</v>
       </c>
       <c r="J2">
-        <v>197.2137227625764</v>
+        <v>351.9385987281273</v>
       </c>
       <c r="K2">
-        <v>35.305097945341352</v>
+        <v>45.88458878716167</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27037</v>
+        <v>29493</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>3.2415808407161799E+19</v>
+        <v>2.973170700971409e+19</v>
       </c>
       <c r="E3">
-        <v>1.674805111047586E+18</v>
+        <v>1.416993686150971e+18</v>
       </c>
       <c r="F3">
-        <v>2.6618744491132371E+19</v>
+        <v>1.933812414853505e+19</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>51.540992838130833</v>
+        <v>49.14862449364644</v>
       </c>
       <c r="I3">
-        <v>9.5159221767203928</v>
+        <v>5.117539090474434</v>
       </c>
       <c r="J3">
-        <v>239.34471370486389</v>
+        <v>168.3227891770218</v>
       </c>
       <c r="K3">
-        <v>46.586207070832231</v>
+        <v>20.33784923050138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27444</v>
+        <v>27571</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>3.5861932935309431E+19</v>
+        <v>3.049267680827461e+19</v>
       </c>
       <c r="E4">
-        <v>1.887890739388482E+18</v>
+        <v>1.947717640956936e+18</v>
       </c>
       <c r="F4">
-        <v>2.7226496753972539E+19</v>
+        <v>2.200791706140705e+19</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>122.30291337027769</v>
+        <v>79.86270346162163</v>
       </c>
       <c r="I4">
-        <v>13.188123480851781</v>
+        <v>20.7104553300755</v>
       </c>
       <c r="J4">
-        <v>706.18224196989024</v>
+        <v>293.7951020785499</v>
       </c>
       <c r="K4">
-        <v>88.737101709559056</v>
+        <v>93.57304056431565</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27453</v>
+        <v>27571</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>2.5477879040778961E+19</v>
+        <v>3.614390489127584e+19</v>
       </c>
       <c r="E5">
-        <v>1.6736728889488829E+18</v>
+        <v>1.290477418628252e+18</v>
       </c>
       <c r="F5">
-        <v>1.537594317281364E+19</v>
+        <v>2.731484969995094e+19</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>111.6590996404003</v>
+        <v>90.33401972597126</v>
       </c>
       <c r="I5">
-        <v>34.568261275054887</v>
+        <v>8.546847320230135</v>
       </c>
       <c r="J5">
-        <v>301.81610777667657</v>
+        <v>404.8503162545095</v>
       </c>
       <c r="K5">
-        <v>112.7942501138514</v>
+        <v>46.71459289099572</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30356</v>
+        <v>27572</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>1.9985928411200618E+19</v>
+        <v>2.229835089799492e+19</v>
       </c>
       <c r="E6">
-        <v>9.2717774865118003E+17</v>
+        <v>9.370383750875054e+17</v>
       </c>
       <c r="F6">
-        <v>1.143490750244865E+19</v>
+        <v>1.772115281695529e+18</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>158.24789286415759</v>
+        <v>9.217702816302394</v>
       </c>
       <c r="I6">
-        <v>18.609439783766959</v>
+        <v>755.4723611032102</v>
       </c>
       <c r="J6">
-        <v>351.93859872812732</v>
+        <v>2.089954409143132</v>
       </c>
       <c r="K6">
-        <v>45.884588787161668</v>
+        <v>95.41885372680416</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>29493</v>
+        <v>27587</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>2.973170700971409E+19</v>
+        <v>1.72146049553447e+19</v>
       </c>
       <c r="E7">
-        <v>1.4169936861509709E+18</v>
+        <v>1.616322774760948e+18</v>
       </c>
       <c r="F7">
-        <v>1.933812414853505E+19</v>
+        <v>4.791363445014261e+18</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>49.148624493646437</v>
+        <v>30.82403741365343</v>
       </c>
       <c r="I7">
-        <v>5.117539090474434</v>
+        <v>19.96427397022853</v>
       </c>
       <c r="J7">
-        <v>168.3227891770218</v>
+        <v>22.18786568132498</v>
       </c>
       <c r="K7">
-        <v>20.33784923050138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>27571</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>3.0492676808274608E+19</v>
-      </c>
-      <c r="E8">
-        <v>1.9477176409569359E+18</v>
-      </c>
-      <c r="F8">
-        <v>2.2007917061407052E+19</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>79.862703461621635</v>
-      </c>
-      <c r="I8">
-        <v>20.710455330075501</v>
-      </c>
-      <c r="J8">
-        <v>293.79510207854992</v>
-      </c>
-      <c r="K8">
-        <v>93.573040564315647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>24524</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>4.2496757732239999E+19</v>
-      </c>
-      <c r="E9">
-        <v>1.117958546672058E+18</v>
-      </c>
-      <c r="F9">
-        <v>3.514932423869313E+19</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>246.1330708793335</v>
-      </c>
-      <c r="I9">
-        <v>15.62258784119935</v>
-      </c>
-      <c r="J9">
-        <v>1493.9847972337809</v>
-      </c>
-      <c r="K9">
-        <v>110.94255290218651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>24524</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>4.2496757732239999E+19</v>
-      </c>
-      <c r="E10">
-        <v>1.117958546672058E+18</v>
-      </c>
-      <c r="F10">
-        <v>3.514932423869313E+19</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>246.1330708793335</v>
-      </c>
-      <c r="I10">
-        <v>15.62258784119935</v>
-      </c>
-      <c r="J10">
-        <v>1493.9847972337809</v>
-      </c>
-      <c r="K10">
-        <v>110.94255290218651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>27571</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>3.6143904891275842E+19</v>
-      </c>
-      <c r="E11">
-        <v>1.2904774186282519E+18</v>
-      </c>
-      <c r="F11">
-        <v>2.731484969995094E+19</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>90.33401972597126</v>
-      </c>
-      <c r="I11">
-        <v>8.5468473202301354</v>
-      </c>
-      <c r="J11">
-        <v>404.85031625450949</v>
-      </c>
-      <c r="K11">
-        <v>46.714592890995718</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>27572</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>2.229835089799492E+19</v>
-      </c>
-      <c r="E12">
-        <v>9.3703837508750541E+17</v>
-      </c>
-      <c r="F12">
-        <v>1.772115281695529E+18</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>9.2177028163023937</v>
-      </c>
-      <c r="I12">
-        <v>755.47236110321023</v>
-      </c>
-      <c r="J12">
-        <v>2.0899544091431319</v>
-      </c>
-      <c r="K12">
-        <v>95.418853726804159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>27587</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>1.7214604955344699E+19</v>
-      </c>
-      <c r="E13">
-        <v>1.616322774760948E+18</v>
-      </c>
-      <c r="F13">
-        <v>4.7913634450142607E+18</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>30.824037413653429</v>
-      </c>
-      <c r="I13">
-        <v>19.964273970228529</v>
-      </c>
-      <c r="J13">
-        <v>22.187865681324979</v>
-      </c>
-      <c r="K13">
         <v>11.83420873121233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>24127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>2.6927510355210928E+19</v>
-      </c>
-      <c r="E14">
-        <v>7.4307009285770445E+17</v>
-      </c>
-      <c r="F14">
-        <v>1.5373181298549461E+19</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>52.710106607960093</v>
-      </c>
-      <c r="I14">
-        <v>4.5477006686280488</v>
-      </c>
-      <c r="J14">
-        <v>125.2001706382882</v>
-      </c>
-      <c r="K14">
-        <v>11.69144215718191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>24124</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>2.617600295371905E+19</v>
-      </c>
-      <c r="E15">
-        <v>8.7604454808459674E+17</v>
-      </c>
-      <c r="F15">
-        <v>2.2514780537752289E+19</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>213.023955960476</v>
-      </c>
-      <c r="I15">
-        <v>16.30466756064574</v>
-      </c>
-      <c r="J15">
-        <v>774.60240192996923</v>
-      </c>
-      <c r="K15">
-        <v>69.848846209707048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>24215</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>3.3833558282434769E+19</v>
-      </c>
-      <c r="E16">
-        <v>1.184094308521738E+18</v>
-      </c>
-      <c r="F16">
-        <v>4.0116769965305143E+19</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>97.308851337977046</v>
-      </c>
-      <c r="I16">
-        <v>7.2787571294256894</v>
-      </c>
-      <c r="J16">
-        <v>617.68487817619564</v>
-      </c>
-      <c r="K16">
-        <v>50.333169638443493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>24330</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>3.7733277536528368E+19</v>
-      </c>
-      <c r="E17">
-        <v>9.5507215248942694E+17</v>
-      </c>
-      <c r="F17">
-        <v>3.159973375760991E+19</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>77.141776604264905</v>
-      </c>
-      <c r="I17">
-        <v>2.7911367412816088</v>
-      </c>
-      <c r="J17">
-        <v>351.56685089831637</v>
-      </c>
-      <c r="K17">
-        <v>12.86151250012383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>27035</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>4.0113425541547164E+19</v>
-      </c>
-      <c r="E18">
-        <v>1.2276665799409659E+18</v>
-      </c>
-      <c r="F18">
-        <v>4.1244600248074617E+19</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>92.111823625424151</v>
-      </c>
-      <c r="I18">
-        <v>7.8787717439688958</v>
-      </c>
-      <c r="J18">
-        <v>566.34026331053985</v>
-      </c>
-      <c r="K18">
-        <v>51.876338699131331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>27036</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>4.1990445821788676E+19</v>
-      </c>
-      <c r="E19">
-        <v>1.8834972283628421E+18</v>
-      </c>
-      <c r="F19">
-        <v>3.5954888208806261E+19</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>86.034188380419948</v>
-      </c>
-      <c r="I19">
-        <v>12.479899236677481</v>
-      </c>
-      <c r="J19">
-        <v>438.26070656775693</v>
-      </c>
-      <c r="K19">
-        <v>68.705596799593195</v>
       </c>
     </row>
   </sheetData>
